--- a/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
+++ b/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\DataDrivenFramework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Maven-Data-Driven-Framework\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675564FE-E1EC-4E04-B30E-442A9B1CB32F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11B9017-9B2B-4ACA-9D12-DEB22CC6393B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{B0A43AE7-AFEC-49F4-82A6-51EE9D56A31A}"/>
+    <workbookView xWindow="2280" yWindow="2388" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{B0A43AE7-AFEC-49F4-82A6-51EE9D56A31A}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>firstName</t>
   </si>
@@ -48,6 +49,24 @@
   </si>
   <si>
     <t>abc123</t>
+  </si>
+  <si>
+    <t>alerttext</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>omer kenig</t>
+  </si>
+  <si>
+    <t>Dollar</t>
   </si>
 </sst>
 </file>
@@ -399,15 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6078D97F-51BE-4D18-A8BA-A79F68FFD4D7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +436,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -427,6 +449,43 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F272F8F-90D8-4E3C-BE1D-F4E7EC9A3C6C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
